--- a/config_Release/fish_3d_server.xlsx
+++ b/config_Release/fish_3d_server.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="41">
   <si>
     <t>id|行号</t>
   </si>
@@ -1193,10 +1193,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1296,16 +1296,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D5" s="1">
-        <v>2000000</v>
+        <v>100000</v>
       </c>
       <c r="E5" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>17</v>
@@ -1316,13 +1316,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D6" s="1">
-        <v>100000</v>
+        <v>1000000</v>
       </c>
       <c r="E6" s="1">
         <v>3</v>
@@ -1333,49 +1333,15 @@
         <v>6</v>
       </c>
       <c r="B7" s="1">
-        <v>3</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>13</v>
+        <v>5</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>35</v>
       </c>
       <c r="D7" s="1">
-        <v>20000000</v>
+        <v>5000000</v>
       </c>
       <c r="E7" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="1">
-        <v>7</v>
-      </c>
-      <c r="B8" s="1">
-        <v>4</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8" s="1">
-        <v>1000000</v>
-      </c>
-      <c r="E8" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="1">
-        <v>8</v>
-      </c>
-      <c r="B9" s="1">
-        <v>5</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D9" s="1">
-        <v>5000000</v>
-      </c>
-      <c r="E9" s="1">
         <v>3</v>
       </c>
     </row>

--- a/config_Release/fish_3d_server.xlsx
+++ b/config_Release/fish_3d_server.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_Release\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="game_main" sheetId="2" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="41">
   <si>
     <t>id|行号</t>
   </si>
@@ -144,50 +144,28 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
+    <t>试炼场</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>神秘海域</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>海底宝藏</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>藏宝海湾</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>深海沉船</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
     <t>jing_bi</t>
     <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>试炼场</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>神秘海域</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>海底宝藏</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>藏宝海湾</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>深海沉船</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>海底两万里</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>螃蟹大作战</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>疯狂激光</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>fish_boss_data_config_1</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>fish_boss_data_config_2</t>
-  </si>
-  <si>
-    <t>fish_boss_data_config_3</t>
   </si>
 </sst>
 </file>
@@ -621,10 +599,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M27"/>
+  <dimension ref="A1:M24"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -674,7 +652,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1" t="s">
@@ -697,7 +675,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1" t="s">
@@ -720,7 +698,7 @@
         <v>3</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1" t="s">
@@ -743,7 +721,7 @@
         <v>4</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1" t="s">
@@ -766,7 +744,7 @@
         <v>5</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1" t="s">
@@ -782,81 +760,45 @@
       <c r="M6" s="8"/>
     </row>
     <row r="7" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A7" s="1">
-        <v>6</v>
-      </c>
-      <c r="B7" s="1">
-        <v>6</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>41</v>
-      </c>
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="3"/>
       <c r="D7" s="1"/>
-      <c r="E7" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F7" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="G7" s="1">
-        <v>1</v>
-      </c>
+      <c r="E7" s="1"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="1"/>
       <c r="L7" s="8"/>
       <c r="M7" s="8"/>
     </row>
-    <row r="8" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A8" s="1">
-        <v>7</v>
-      </c>
-      <c r="B8" s="1">
-        <v>7</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>42</v>
-      </c>
+    <row r="8" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
       <c r="D8" s="1"/>
-      <c r="E8" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F8" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="G8" s="1">
-        <v>1</v>
-      </c>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
       <c r="L8" s="8"/>
       <c r="M8" s="8"/>
     </row>
-    <row r="9" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A9" s="1">
-        <v>8</v>
-      </c>
-      <c r="B9" s="1">
-        <v>8</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>43</v>
-      </c>
+    <row r="9" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
       <c r="D9" s="1"/>
-      <c r="E9" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F9" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="G9" s="1">
-        <v>1</v>
-      </c>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
       <c r="L9" s="8"/>
       <c r="M9" s="8"/>
     </row>
-    <row r="10" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
-      <c r="C10" s="3"/>
+      <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
-      <c r="F10" s="10"/>
+      <c r="F10" s="1"/>
       <c r="G10" s="1"/>
       <c r="L10" s="8"/>
       <c r="M10" s="8"/>
@@ -869,42 +811,39 @@
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
-      <c r="L11" s="8"/>
-      <c r="M11" s="8"/>
+      <c r="K11" s="8"/>
     </row>
     <row r="12" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
+      <c r="C12" s="3"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
-      <c r="L12" s="8"/>
-      <c r="M12" s="8"/>
+      <c r="K12" s="8"/>
     </row>
     <row r="13" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
+      <c r="C13" s="3"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
-      <c r="L13" s="8"/>
-      <c r="M13" s="8"/>
+      <c r="K13" s="8"/>
     </row>
     <row r="14" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
+      <c r="C14" s="3"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
       <c r="K14" s="8"/>
     </row>
-    <row r="15" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="3"/>
@@ -912,9 +851,8 @@
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
-      <c r="K15" s="8"/>
-    </row>
-    <row r="16" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="3"/>
@@ -922,9 +860,8 @@
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
-      <c r="K16" s="8"/>
-    </row>
-    <row r="17" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="3"/>
@@ -932,7 +869,6 @@
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
-      <c r="K17" s="8"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" s="1"/>
@@ -943,7 +879,7 @@
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="3"/>
@@ -951,8 +887,10 @@
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="L19" s="8"/>
+      <c r="M19" s="8"/>
+    </row>
+    <row r="20" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="3"/>
@@ -960,8 +898,10 @@
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="L20" s="8"/>
+      <c r="M20" s="8"/>
+    </row>
+    <row r="21" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="3"/>
@@ -969,6 +909,8 @@
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
+      <c r="L21" s="8"/>
+      <c r="M21" s="8"/>
     </row>
     <row r="22" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A22" s="1"/>
@@ -981,45 +923,12 @@
       <c r="L22" s="8"/>
       <c r="M22" s="8"/>
     </row>
-    <row r="23" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A23" s="1"/>
-      <c r="B23" s="1"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
-      <c r="L23" s="8"/>
-      <c r="M23" s="8"/>
-    </row>
-    <row r="24" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A24" s="1"/>
-      <c r="B24" s="1"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="1"/>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
-      <c r="L24" s="8"/>
-      <c r="M24" s="8"/>
-    </row>
-    <row r="25" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A25" s="1"/>
-      <c r="B25" s="1"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
-      <c r="L25" s="8"/>
-      <c r="M25" s="8"/>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="F26" s="1"/>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
@@ -1030,10 +939,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G23"/>
+  <dimension ref="A1:G20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView topLeftCell="C1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1175,64 +1084,16 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="1">
-        <v>6</v>
-      </c>
-      <c r="B7" s="1">
-        <v>6</v>
-      </c>
-      <c r="C7" s="1">
-        <v>6</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="E7" s="7">
-        <v>6</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>44</v>
-      </c>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="1">
-        <v>7</v>
-      </c>
-      <c r="B8" s="1">
-        <v>7</v>
-      </c>
-      <c r="C8" s="1">
-        <v>7</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="E8" s="7">
-        <v>7</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>45</v>
-      </c>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="1">
-        <v>8</v>
-      </c>
-      <c r="B9" s="1">
-        <v>8</v>
-      </c>
-      <c r="C9" s="1">
-        <v>8</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="E9" s="7">
-        <v>8</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>46</v>
-      </c>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="D10" s="7"/>
@@ -1277,18 +1138,6 @@
     <row r="20" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D20" s="7"/>
       <c r="E20" s="7"/>
-    </row>
-    <row r="21" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
-    </row>
-    <row r="22" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D22" s="7"/>
-      <c r="E22" s="7"/>
-    </row>
-    <row r="23" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D23" s="7"/>
-      <c r="E23" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
@@ -1299,10 +1148,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1388,7 +1237,7 @@
         <v>13</v>
       </c>
       <c r="D4" s="1">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="E4" s="1">
         <v>3</v>
@@ -1442,63 +1291,12 @@
         <v>5</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D7" s="1">
         <v>5000000</v>
       </c>
       <c r="E7" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="1">
-        <v>7</v>
-      </c>
-      <c r="B8" s="1">
-        <v>5</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D8" s="1">
-        <v>1000000</v>
-      </c>
-      <c r="E8" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="1">
-        <v>8</v>
-      </c>
-      <c r="B9" s="1">
-        <v>5</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D9" s="1">
-        <v>2000000</v>
-      </c>
-      <c r="E9" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="1">
-        <v>9</v>
-      </c>
-      <c r="B10" s="1">
-        <v>5</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D10" s="1">
-        <v>5000000</v>
-      </c>
-      <c r="E10" s="1">
         <v>3</v>
       </c>
     </row>

--- a/config_Release/fish_3d_server.xlsx
+++ b/config_Release/fish_3d_server.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_2.9\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="41">
   <si>
     <t>id|行号</t>
   </si>
@@ -602,7 +602,7 @@
   <dimension ref="A1:M24"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -941,8 +941,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G20"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1148,10 +1148,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:E7"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1251,16 +1251,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D5" s="1">
-        <v>100000</v>
+        <v>1000000</v>
       </c>
       <c r="E5" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>17</v>
@@ -1271,13 +1271,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D6" s="1">
-        <v>1000000</v>
+        <v>100000</v>
       </c>
       <c r="E6" s="1">
         <v>3</v>
@@ -1288,15 +1288,66 @@
         <v>6</v>
       </c>
       <c r="B7" s="1">
+        <v>3</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="1">
+        <v>200000000</v>
+      </c>
+      <c r="E7" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1">
+        <v>4</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="1">
+        <v>1000000</v>
+      </c>
+      <c r="E8" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1">
+        <v>4</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="1">
+        <v>800000000</v>
+      </c>
+      <c r="E9" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1">
         <v>5</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C10" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D7" s="1">
-        <v>5000000</v>
-      </c>
-      <c r="E7" s="1">
+      <c r="D10" s="1">
+        <v>10000000</v>
+      </c>
+      <c r="E10" s="1">
         <v>3</v>
       </c>
     </row>

--- a/config_Release/fish_3d_server.xlsx
+++ b/config_Release/fish_3d_server.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_2.9\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="game_main" sheetId="2" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="53">
   <si>
     <t>id|行号</t>
   </si>
@@ -165,6 +165,52 @@
   </si>
   <si>
     <t>jing_bi</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>海底两万里</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>nor_fishing_3d_nor</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>螃蟹大作战</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>疯狂激光</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>nor_fishing_3d_nor</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>fish_boss_data_config_1</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>fish_boss_data_config_2</t>
+  </si>
+  <si>
+    <t>100000,200000,300000,400000,500000,600000,700000,800000,900000,1000000,</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>fish_boss_data_config_3</t>
+  </si>
+  <si>
+    <t>jing_bi</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>jing_bi</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>name_type|名字类型 1=数字 2=中文</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -602,7 +648,7 @@
   <dimension ref="A1:M24"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="A7" sqref="A7:XFD9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -760,35 +806,71 @@
       <c r="M6" s="8"/>
     </row>
     <row r="7" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="3"/>
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1">
+        <v>6</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="1"/>
+      <c r="E7" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G7" s="1">
+        <v>1</v>
+      </c>
       <c r="L7" s="8"/>
       <c r="M7" s="8"/>
     </row>
-    <row r="8" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
+    <row r="8" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1">
+        <v>7</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>43</v>
+      </c>
       <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
+      <c r="E8" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G8" s="1">
+        <v>1</v>
+      </c>
       <c r="L8" s="8"/>
       <c r="M8" s="8"/>
     </row>
-    <row r="9" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
+    <row r="9" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1">
+        <v>8</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>44</v>
+      </c>
       <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
+      <c r="E9" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G9" s="1">
+        <v>1</v>
+      </c>
       <c r="L9" s="8"/>
       <c r="M9" s="8"/>
     </row>
@@ -939,10 +1021,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G20"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2:G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -950,14 +1032,14 @@
     <col min="1" max="1" width="10.125" style="1" customWidth="1"/>
     <col min="2" max="2" width="16.75" style="1" customWidth="1"/>
     <col min="3" max="3" width="13.875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="72.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38.25" style="1" customWidth="1"/>
     <col min="5" max="5" width="26.625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="25.125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="40" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="11" style="1"/>
+    <col min="6" max="7" width="25.125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="40" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="11" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -977,10 +1059,13 @@
         <v>19</v>
       </c>
       <c r="G1" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="H1" s="9" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -999,11 +1084,14 @@
       <c r="F2" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="3">
+        <v>1</v>
+      </c>
+      <c r="H2" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -1022,8 +1110,11 @@
       <c r="F3" s="3" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G3" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -1042,8 +1133,11 @@
       <c r="F4" s="3" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G4" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -1062,8 +1156,11 @@
       <c r="F5" s="3" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G5" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -1082,44 +1179,104 @@
       <c r="F6" s="3" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G6" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1">
+        <v>6</v>
+      </c>
+      <c r="C7" s="1">
+        <v>6</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7" s="7">
+        <v>6</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="G7" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1">
+        <v>7</v>
+      </c>
+      <c r="C8" s="1">
+        <v>7</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E8" s="7">
+        <v>7</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="G8" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1">
+        <v>8</v>
+      </c>
+      <c r="C9" s="1">
+        <v>8</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="E9" s="7">
+        <v>8</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="G9" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="D10" s="7"/>
       <c r="E10" s="7"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="D11" s="7"/>
       <c r="E11" s="7"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="D12" s="7"/>
       <c r="E12" s="7"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="D13" s="7"/>
       <c r="E13" s="7"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="D14" s="7"/>
       <c r="E14" s="7"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="D15" s="7"/>
       <c r="E15" s="7"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="D16" s="7"/>
       <c r="E16" s="7"/>
     </row>
@@ -1148,10 +1305,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1351,6 +1508,57 @@
         <v>3</v>
       </c>
     </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1">
+        <v>6</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D11" s="1">
+        <v>1000000</v>
+      </c>
+      <c r="E11" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1">
+        <v>7</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D12" s="1">
+        <v>2000000</v>
+      </c>
+      <c r="E12" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1">
+        <v>8</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D13" s="1">
+        <v>5000000</v>
+      </c>
+      <c r="E13" s="1">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <sortState ref="D2:D12">
     <sortCondition ref="D12"/>

--- a/config_Release/fish_3d_server.xlsx
+++ b/config_Release/fish_3d_server.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="44">
   <si>
     <t>id|行号</t>
   </si>
@@ -166,40 +166,6 @@
   <si>
     <t>jing_bi</t>
     <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>海底两万里</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>nor_fishing_3d_nor</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>螃蟹大作战</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>疯狂激光</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>nor_fishing_3d_nor</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>fish_boss_data_config_1</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>fish_boss_data_config_2</t>
-  </si>
-  <si>
-    <t>100000,200000,300000,400000,500000,600000,700000,800000,900000,1000000,</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>fish_boss_data_config_3</t>
   </si>
   <si>
     <t>jing_bi</t>
@@ -645,10 +611,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M24"/>
+  <dimension ref="A1:M21"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:XFD9"/>
+      <selection activeCell="A9" sqref="A7:XFD9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -805,97 +771,58 @@
       <c r="L6" s="8"/>
       <c r="M6" s="8"/>
     </row>
-    <row r="7" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A7" s="1">
-        <v>6</v>
-      </c>
-      <c r="B7" s="1">
-        <v>6</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>41</v>
-      </c>
+    <row r="7" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
       <c r="D7" s="1"/>
-      <c r="E7" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F7" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="G7" s="1">
-        <v>1</v>
-      </c>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
       <c r="L7" s="8"/>
       <c r="M7" s="8"/>
     </row>
-    <row r="8" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A8" s="1">
-        <v>7</v>
-      </c>
-      <c r="B8" s="1">
-        <v>7</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>43</v>
-      </c>
+    <row r="8" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
       <c r="D8" s="1"/>
-      <c r="E8" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F8" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="G8" s="1">
-        <v>1</v>
-      </c>
-      <c r="L8" s="8"/>
-      <c r="M8" s="8"/>
-    </row>
-    <row r="9" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A9" s="1">
-        <v>8</v>
-      </c>
-      <c r="B9" s="1">
-        <v>8</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>44</v>
-      </c>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="K8" s="8"/>
+    </row>
+    <row r="9" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="3"/>
       <c r="D9" s="1"/>
-      <c r="E9" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F9" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="G9" s="1">
-        <v>1</v>
-      </c>
-      <c r="L9" s="8"/>
-      <c r="M9" s="8"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="K9" s="8"/>
     </row>
     <row r="10" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
+      <c r="C10" s="3"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
-      <c r="L10" s="8"/>
-      <c r="M10" s="8"/>
+      <c r="K10" s="8"/>
     </row>
     <row r="11" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
+      <c r="C11" s="3"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
       <c r="K11" s="8"/>
     </row>
-    <row r="12" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="3"/>
@@ -903,9 +830,8 @@
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
-      <c r="K12" s="8"/>
-    </row>
-    <row r="13" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="3"/>
@@ -913,9 +839,8 @@
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
-      <c r="K13" s="8"/>
-    </row>
-    <row r="14" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="3"/>
@@ -923,7 +848,6 @@
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
-      <c r="K14" s="8"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" s="1"/>
@@ -934,7 +858,7 @@
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="3"/>
@@ -942,8 +866,10 @@
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="L16" s="8"/>
+      <c r="M16" s="8"/>
+    </row>
+    <row r="17" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="3"/>
@@ -951,8 +877,10 @@
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="L17" s="8"/>
+      <c r="M17" s="8"/>
+    </row>
+    <row r="18" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="3"/>
@@ -960,6 +888,8 @@
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
+      <c r="L18" s="8"/>
+      <c r="M18" s="8"/>
     </row>
     <row r="19" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A19" s="1"/>
@@ -972,45 +902,12 @@
       <c r="L19" s="8"/>
       <c r="M19" s="8"/>
     </row>
-    <row r="20" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-      <c r="L20" s="8"/>
-      <c r="M20" s="8"/>
-    </row>
-    <row r="21" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="1"/>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-      <c r="L21" s="8"/>
-      <c r="M21" s="8"/>
-    </row>
-    <row r="22" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A22" s="1"/>
-      <c r="B22" s="1"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
-      <c r="L22" s="8"/>
-      <c r="M22" s="8"/>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="F23" s="1"/>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
@@ -1021,10 +918,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H20"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:G9"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1059,7 +956,7 @@
         <v>19</v>
       </c>
       <c r="G1" s="9" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="H1" s="9" t="s">
         <v>20</v>
@@ -1184,73 +1081,16 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="1">
-        <v>6</v>
-      </c>
-      <c r="B7" s="1">
-        <v>6</v>
-      </c>
-      <c r="C7" s="1">
-        <v>6</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="E7" s="7">
-        <v>6</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="G7" s="3">
-        <v>1</v>
-      </c>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="1">
-        <v>7</v>
-      </c>
-      <c r="B8" s="1">
-        <v>7</v>
-      </c>
-      <c r="C8" s="1">
-        <v>7</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="E8" s="7">
-        <v>7</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="G8" s="3">
-        <v>1</v>
-      </c>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="1">
-        <v>8</v>
-      </c>
-      <c r="B9" s="1">
-        <v>8</v>
-      </c>
-      <c r="C9" s="1">
-        <v>8</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="E9" s="7">
-        <v>8</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="G9" s="3">
-        <v>1</v>
-      </c>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="D10" s="7"/>
@@ -1283,18 +1123,6 @@
     <row r="17" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D17" s="7"/>
       <c r="E17" s="7"/>
-    </row>
-    <row r="18" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
-    </row>
-    <row r="19" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
-    </row>
-    <row r="20" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
@@ -1308,7 +1136,7 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="D13" sqref="A2:D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1394,7 +1222,7 @@
         <v>13</v>
       </c>
       <c r="D4" s="1">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="E4" s="1">
         <v>3</v>
@@ -1516,7 +1344,7 @@
         <v>6</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="D11" s="1">
         <v>1000000</v>
@@ -1533,7 +1361,7 @@
         <v>7</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="D12" s="1">
         <v>2000000</v>
@@ -1550,7 +1378,7 @@
         <v>8</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="D13" s="1">
         <v>5000000</v>

--- a/config_Release/fish_3d_server.xlsx
+++ b/config_Release/fish_3d_server.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="game_main" sheetId="2" r:id="rId1"/>
@@ -920,8 +920,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1135,8 +1135,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="A2:D13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1202,7 +1202,7 @@
         <v>13</v>
       </c>
       <c r="D3" s="1">
-        <v>200000</v>
+        <v>60000</v>
       </c>
       <c r="E3" s="1">
         <v>4</v>
@@ -1222,7 +1222,7 @@
         <v>13</v>
       </c>
       <c r="D4" s="1">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="E4" s="1">
         <v>3</v>
@@ -1242,7 +1242,7 @@
         <v>13</v>
       </c>
       <c r="D5" s="1">
-        <v>1000000</v>
+        <v>500000</v>
       </c>
       <c r="E5" s="1">
         <v>4</v>

--- a/config_Release/fish_3d_server.xlsx
+++ b/config_Release/fish_3d_server.xlsx
@@ -614,7 +614,7 @@
   <dimension ref="A1:M21"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A9" sqref="A7:XFD9"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1136,7 +1136,7 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1202,7 +1202,7 @@
         <v>13</v>
       </c>
       <c r="D3" s="1">
-        <v>60000</v>
+        <v>100000</v>
       </c>
       <c r="E3" s="1">
         <v>4</v>

--- a/config_Release/fish_3d_server.xlsx
+++ b/config_Release/fish_3d_server.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="44">
   <si>
     <t>id|行号</t>
   </si>
@@ -1136,7 +1136,7 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1202,7 +1202,7 @@
         <v>13</v>
       </c>
       <c r="D3" s="1">
-        <v>100000</v>
+        <v>200000</v>
       </c>
       <c r="E3" s="1">
         <v>4</v>
